--- a/fe_client/Assets/GameData/sheet_buff.xlsx
+++ b/fe_client/Assets/GameData/sheet_buff.xlsx
@@ -55,7 +55,7 @@
     <t>System_AttackCount</t>
   </si>
   <si>
-    <t>팔룸 - 방어력 + 3</t>
+    <t>팔랑크스 - 방어력 + 3</t>
   </si>
   <si>
     <t>Unit_Defense</t>
@@ -390,7 +390,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>300400.0</v>
+        <v>300200.0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
